--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ybx1-Notch1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>279.370380565937</v>
+        <v>281.7688496666667</v>
       </c>
       <c r="H2">
-        <v>279.370380565937</v>
+        <v>845.306549</v>
       </c>
       <c r="I2">
-        <v>0.490099137844851</v>
+        <v>0.4678027549763871</v>
       </c>
       <c r="J2">
-        <v>0.490099137844851</v>
+        <v>0.4678027549763872</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N2">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O2">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P2">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q2">
-        <v>18597.02295870913</v>
+        <v>19161.2369737337</v>
       </c>
       <c r="R2">
-        <v>18597.02295870913</v>
+        <v>172451.1327636033</v>
       </c>
       <c r="S2">
-        <v>0.3103148891398667</v>
+        <v>0.2931234426476023</v>
       </c>
       <c r="T2">
-        <v>0.3103148891398667</v>
+        <v>0.2931234426476024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>279.370380565937</v>
+        <v>281.7688496666667</v>
       </c>
       <c r="H3">
-        <v>279.370380565937</v>
+        <v>845.306549</v>
       </c>
       <c r="I3">
-        <v>0.490099137844851</v>
+        <v>0.4678027549763871</v>
       </c>
       <c r="J3">
-        <v>0.490099137844851</v>
+        <v>0.4678027549763872</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N3">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P3">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q3">
-        <v>2493.923388389777</v>
+        <v>2533.533064843323</v>
       </c>
       <c r="R3">
-        <v>2493.923388389777</v>
+        <v>22801.79758358991</v>
       </c>
       <c r="S3">
-        <v>0.04161427135460252</v>
+        <v>0.03875730648529721</v>
       </c>
       <c r="T3">
-        <v>0.04161427135460252</v>
+        <v>0.03875730648529722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>279.370380565937</v>
+        <v>281.7688496666667</v>
       </c>
       <c r="H4">
-        <v>279.370380565937</v>
+        <v>845.306549</v>
       </c>
       <c r="I4">
-        <v>0.490099137844851</v>
+        <v>0.4678027549763871</v>
       </c>
       <c r="J4">
-        <v>0.490099137844851</v>
+        <v>0.4678027549763872</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N4">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O4">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P4">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q4">
-        <v>2703.018447234479</v>
+        <v>3034.21076365862</v>
       </c>
       <c r="R4">
-        <v>2703.018447234479</v>
+        <v>27307.89687292758</v>
       </c>
       <c r="S4">
-        <v>0.04510328731963906</v>
+        <v>0.04641653907736833</v>
       </c>
       <c r="T4">
-        <v>0.04510328731963906</v>
+        <v>0.04641653907736834</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>279.370380565937</v>
+        <v>281.7688496666667</v>
       </c>
       <c r="H5">
-        <v>279.370380565937</v>
+        <v>845.306549</v>
       </c>
       <c r="I5">
-        <v>0.490099137844851</v>
+        <v>0.4678027549763871</v>
       </c>
       <c r="J5">
-        <v>0.490099137844851</v>
+        <v>0.4678027549763872</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N5">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O5">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P5">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q5">
-        <v>5577.442242588273</v>
+        <v>5850.89832344832</v>
       </c>
       <c r="R5">
-        <v>5577.442242588273</v>
+        <v>52658.08491103489</v>
       </c>
       <c r="S5">
-        <v>0.09306669003074278</v>
+        <v>0.0895054667661192</v>
       </c>
       <c r="T5">
-        <v>0.09306669003074278</v>
+        <v>0.08950546676611923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.4507761544731</v>
+        <v>96.77942399999999</v>
       </c>
       <c r="H6">
-        <v>96.4507761544731</v>
+        <v>290.338272</v>
       </c>
       <c r="I6">
-        <v>0.1692034858599379</v>
+        <v>0.160676672477411</v>
       </c>
       <c r="J6">
-        <v>0.1692034858599379</v>
+        <v>0.1606766724774111</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N6">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O6">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P6">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q6">
-        <v>6420.499177101213</v>
+        <v>6581.328914247359</v>
       </c>
       <c r="R6">
-        <v>6420.499177101213</v>
+        <v>59231.96022822623</v>
       </c>
       <c r="S6">
-        <v>0.1071341630748336</v>
+        <v>0.1006793972218426</v>
       </c>
       <c r="T6">
-        <v>0.1071341630748336</v>
+        <v>0.1006793972218426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>96.4507761544731</v>
+        <v>96.77942399999999</v>
       </c>
       <c r="H7">
-        <v>96.4507761544731</v>
+        <v>290.338272</v>
       </c>
       <c r="I7">
-        <v>0.1692034858599379</v>
+        <v>0.160676672477411</v>
       </c>
       <c r="J7">
-        <v>0.1692034858599379</v>
+        <v>0.1606766724774111</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N7">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P7">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q7">
-        <v>861.0105552088585</v>
+        <v>870.1950942787198</v>
       </c>
       <c r="R7">
-        <v>861.0105552088585</v>
+        <v>7831.755848508478</v>
       </c>
       <c r="S7">
-        <v>0.01436705195133222</v>
+        <v>0.0133120101880526</v>
       </c>
       <c r="T7">
-        <v>0.01436705195133222</v>
+        <v>0.0133120101880526</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>96.4507761544731</v>
+        <v>96.77942399999999</v>
       </c>
       <c r="H8">
-        <v>96.4507761544731</v>
+        <v>290.338272</v>
       </c>
       <c r="I8">
-        <v>0.1692034858599379</v>
+        <v>0.160676672477411</v>
       </c>
       <c r="J8">
-        <v>0.1692034858599379</v>
+        <v>0.1606766724774111</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N8">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O8">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P8">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q8">
-        <v>933.1992413350771</v>
+        <v>1042.163356058944</v>
       </c>
       <c r="R8">
-        <v>933.1992413350771</v>
+        <v>9379.470204530495</v>
       </c>
       <c r="S8">
-        <v>0.01557161163715653</v>
+        <v>0.01594273434162592</v>
       </c>
       <c r="T8">
-        <v>0.01557161163715653</v>
+        <v>0.01594273434162592</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>96.4507761544731</v>
+        <v>96.77942399999999</v>
       </c>
       <c r="H9">
-        <v>96.4507761544731</v>
+        <v>290.338272</v>
       </c>
       <c r="I9">
-        <v>0.1692034858599379</v>
+        <v>0.160676672477411</v>
       </c>
       <c r="J9">
-        <v>0.1692034858599379</v>
+        <v>0.1606766724774111</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N9">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O9">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P9">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q9">
-        <v>1925.575045445511</v>
+        <v>2009.613803285088</v>
       </c>
       <c r="R9">
-        <v>1925.575045445511</v>
+        <v>18086.52422956579</v>
       </c>
       <c r="S9">
-        <v>0.03213065919661554</v>
+        <v>0.03074253072588992</v>
       </c>
       <c r="T9">
-        <v>0.03213065919661554</v>
+        <v>0.03074253072588993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>126.134236461051</v>
+        <v>141.6283213333333</v>
       </c>
       <c r="H10">
-        <v>126.134236461051</v>
+        <v>424.884964</v>
       </c>
       <c r="I10">
-        <v>0.2212771461922726</v>
+        <v>0.2351364211508588</v>
       </c>
       <c r="J10">
-        <v>0.2212771461922726</v>
+        <v>0.2351364211508588</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N10">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O10">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P10">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q10">
-        <v>8396.456655832826</v>
+        <v>9631.205970675986</v>
       </c>
       <c r="R10">
-        <v>8396.456655832826</v>
+        <v>86680.85373608387</v>
       </c>
       <c r="S10">
-        <v>0.1401055170017018</v>
+        <v>0.1473355950267015</v>
       </c>
       <c r="T10">
-        <v>0.1401055170017018</v>
+        <v>0.1473355950267015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>126.134236461051</v>
+        <v>141.6283213333333</v>
       </c>
       <c r="H11">
-        <v>126.134236461051</v>
+        <v>424.884964</v>
       </c>
       <c r="I11">
-        <v>0.2212771461922726</v>
+        <v>0.2351364211508588</v>
       </c>
       <c r="J11">
-        <v>0.2212771461922726</v>
+        <v>0.2351364211508588</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N11">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P11">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q11">
-        <v>1125.993105459715</v>
+        <v>1273.455300118306</v>
       </c>
       <c r="R11">
-        <v>1125.993105459715</v>
+        <v>11461.09770106476</v>
       </c>
       <c r="S11">
-        <v>0.0187886215158622</v>
+        <v>0.01948097620942775</v>
       </c>
       <c r="T11">
-        <v>0.0187886215158622</v>
+        <v>0.01948097620942775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>126.134236461051</v>
+        <v>141.6283213333333</v>
       </c>
       <c r="H12">
-        <v>126.134236461051</v>
+        <v>424.884964</v>
       </c>
       <c r="I12">
-        <v>0.2212771461922726</v>
+        <v>0.2351364211508588</v>
       </c>
       <c r="J12">
-        <v>0.2212771461922726</v>
+        <v>0.2351364211508588</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N12">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O12">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P12">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q12">
-        <v>1220.398409063223</v>
+        <v>1525.115986159839</v>
       </c>
       <c r="R12">
-        <v>1220.398409063223</v>
+        <v>13726.04387543855</v>
       </c>
       <c r="S12">
-        <v>0.02036389361113156</v>
+        <v>0.02333081360628644</v>
       </c>
       <c r="T12">
-        <v>0.02036389361113156</v>
+        <v>0.02333081360628644</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>126.134236461051</v>
+        <v>141.6283213333333</v>
       </c>
       <c r="H13">
-        <v>126.134236461051</v>
+        <v>424.884964</v>
       </c>
       <c r="I13">
-        <v>0.2212771461922726</v>
+        <v>0.2351364211508588</v>
       </c>
       <c r="J13">
-        <v>0.2212771461922726</v>
+        <v>0.2351364211508588</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N13">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O13">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P13">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q13">
-        <v>2518.185418401727</v>
+        <v>2940.896088486356</v>
       </c>
       <c r="R13">
-        <v>2518.185418401727</v>
+        <v>26468.0647963772</v>
       </c>
       <c r="S13">
-        <v>0.04201911406357709</v>
+        <v>0.04498903630844313</v>
       </c>
       <c r="T13">
-        <v>0.04201911406357709</v>
+        <v>0.04498903630844314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.0729112845148</v>
+        <v>82.14745433333333</v>
       </c>
       <c r="H14">
-        <v>68.0729112845148</v>
+        <v>246.442363</v>
       </c>
       <c r="I14">
-        <v>0.1194202301029386</v>
+        <v>0.1363841513953429</v>
       </c>
       <c r="J14">
-        <v>0.1194202301029386</v>
+        <v>0.1363841513953429</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.5676258200173</v>
+        <v>68.00339</v>
       </c>
       <c r="N14">
-        <v>66.5676258200173</v>
+        <v>204.01017</v>
       </c>
       <c r="O14">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909886</v>
       </c>
       <c r="P14">
-        <v>0.6331675883055767</v>
+        <v>0.6265962299909885</v>
       </c>
       <c r="Q14">
-        <v>4531.452086866814</v>
+        <v>5586.305374536856</v>
       </c>
       <c r="R14">
-        <v>4531.452086866814</v>
+        <v>50276.74837083171</v>
       </c>
       <c r="S14">
-        <v>0.07561301908917469</v>
+        <v>0.0854577950948421</v>
       </c>
       <c r="T14">
-        <v>0.07561301908917469</v>
+        <v>0.0854577950948421</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.0729112845148</v>
+        <v>82.14745433333333</v>
       </c>
       <c r="H15">
-        <v>68.0729112845148</v>
+        <v>246.442363</v>
       </c>
       <c r="I15">
-        <v>0.1194202301029386</v>
+        <v>0.1363841513953429</v>
       </c>
       <c r="J15">
-        <v>0.1194202301029386</v>
+        <v>0.1363841513953429</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.926942732216959</v>
+        <v>8.991529999999999</v>
       </c>
       <c r="N15">
-        <v>8.926942732216959</v>
+        <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="P15">
-        <v>0.08490990524406146</v>
+        <v>0.08284967558015671</v>
       </c>
       <c r="Q15">
-        <v>607.6829806521492</v>
+        <v>738.6313000617965</v>
       </c>
       <c r="R15">
-        <v>607.6829806521492</v>
+        <v>6647.68170055617</v>
       </c>
       <c r="S15">
-        <v>0.01013996042226454</v>
+        <v>0.01129938269737914</v>
       </c>
       <c r="T15">
-        <v>0.01013996042226454</v>
+        <v>0.01129938269737914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.0729112845148</v>
+        <v>82.14745433333333</v>
       </c>
       <c r="H16">
-        <v>68.0729112845148</v>
+        <v>246.442363</v>
       </c>
       <c r="I16">
-        <v>0.1194202301029386</v>
+        <v>0.1363841513953429</v>
       </c>
       <c r="J16">
-        <v>0.1194202301029386</v>
+        <v>0.1363841513953429</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.67539379714777</v>
+        <v>10.76843933333333</v>
       </c>
       <c r="N16">
-        <v>9.67539379714777</v>
+        <v>32.305318</v>
       </c>
       <c r="O16">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="P16">
-        <v>0.09202890565769013</v>
+        <v>0.09922245772090688</v>
       </c>
       <c r="Q16">
-        <v>658.6322235959849</v>
+        <v>884.5998783762703</v>
       </c>
       <c r="R16">
-        <v>658.6322235959849</v>
+        <v>7961.398905386434</v>
       </c>
       <c r="S16">
-        <v>0.01099011308976299</v>
+        <v>0.01353237069562617</v>
       </c>
       <c r="T16">
-        <v>0.01099011308976299</v>
+        <v>0.01353237069562618</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>68.0729112845148</v>
+        <v>82.14745433333333</v>
       </c>
       <c r="H17">
-        <v>68.0729112845148</v>
+        <v>246.442363</v>
       </c>
       <c r="I17">
-        <v>0.1194202301029386</v>
+        <v>0.1363841513953429</v>
       </c>
       <c r="J17">
-        <v>0.1194202301029386</v>
+        <v>0.1363841513953429</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.9643291865434</v>
+        <v>20.764887</v>
       </c>
       <c r="N17">
-        <v>19.9643291865434</v>
+        <v>62.294661</v>
       </c>
       <c r="O17">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="P17">
-        <v>0.1898936007926718</v>
+        <v>0.1913316367079478</v>
       </c>
       <c r="Q17">
-        <v>1359.030009570418</v>
+        <v>1705.782606569327</v>
       </c>
       <c r="R17">
-        <v>1359.030009570418</v>
+        <v>15352.04345912394</v>
       </c>
       <c r="S17">
-        <v>0.02267713750173644</v>
+        <v>0.0260946029074955</v>
       </c>
       <c r="T17">
-        <v>0.02267713750173644</v>
+        <v>0.0260946029074955</v>
       </c>
     </row>
   </sheetData>
